--- a/Bits.xlsx
+++ b/Bits.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Reverse Bits</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/reverse-bits/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Total bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/count-total-set-bits/</t>
   </si>
 </sst>
 </file>
@@ -131,10 +137,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -152,9 +158,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/reverse-bits/"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/count-total-set-bits/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Bits.xlsx
+++ b/Bits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Reverse Bits</t>
   </si>
@@ -32,6 +32,29 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/count-total-set-bits/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different Bits Sum Pairwise
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.interviewbit.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/problems/different-bits-sum-pairwise/</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -111,13 +134,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -137,15 +164,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0102040816327"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.7908163265306"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
@@ -166,10 +193,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/reverse-bits/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/count-total-set-bits/"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Bits.xlsx
+++ b/Bits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Reverse Bits</t>
   </si>
@@ -55,6 +55,12 @@
       </rPr>
       <t xml:space="preserve">/problems/different-bits-sum-pairwise/</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Number II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/single-number-ii/</t>
   </si>
 </sst>
 </file>
@@ -164,10 +170,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -201,11 +207,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/reverse-bits/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/count-total-set-bits/"/>
     <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/single-number-ii/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Bits.xlsx
+++ b/Bits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Reverse Bits</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/single-number-ii/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palindromic Binary representation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/palindromic-binary-representation/</t>
   </si>
 </sst>
 </file>
@@ -170,15 +176,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5663265306122"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.7908163265306"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
@@ -215,12 +221,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/reverse-bits/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/count-total-set-bits/"/>
     <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com"/>
     <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/single-number-ii/"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://www.interviewbit.com/problems/palindromic-binary-representation/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
